--- a/inputs/E_CigO_fordiscussion.xlsx
+++ b/inputs/E_CigO_fordiscussion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Documents\GitHub\addiction-ontology\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28C7A414-37A7-42A8-92B9-19841976373C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82C0D70-3480-4631-8BC5-6C6CDCFC8E81}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CFD89471-969D-DA4E-B695-10E28209D64F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="70">
   <si>
     <t>ID</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Food and Drugs Administration</t>
   </si>
   <si>
-    <t xml:space="preserve">Centre for Disease Control </t>
-  </si>
-  <si>
     <t xml:space="preserve">Tobacco-related disease </t>
   </si>
   <si>
@@ -210,14 +207,41 @@
     <t>A process in which an increase in prevalence of use of a product delivering a psychoactive substance leads to an increase in the prevalence of use of another product delivering a psychoactive substance.</t>
   </si>
   <si>
-    <t>add subclasses</t>
+    <t>Daily tobacco smoker</t>
+  </si>
+  <si>
+    <t>Non-daily tobacco smoker</t>
+  </si>
+  <si>
+    <t>A person who is close in age to the transition between childhood and adulthood.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An adult </t>
+  </si>
+  <si>
+    <t>Adult</t>
+  </si>
+  <si>
+    <t>A disposition that is an increased likelihood of an adverse health outcome.</t>
+  </si>
+  <si>
+    <t>Disposition</t>
+  </si>
+  <si>
+    <t>Note in comment that is the risk not what leads to the risk and maybe give examples of correct and incorrect usage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centres for Disease Control </t>
+  </si>
+  <si>
+    <t>A government agency that muddies the waters on definition of tobacco products</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -250,6 +274,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -271,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -298,6 +329,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -614,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2F1A1D6-CE09-5741-871E-C0900D993FE1}">
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -647,7 +681,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>1</v>
@@ -723,249 +757,281 @@
       <c r="S2" s="1"/>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:20" ht="62" x14ac:dyDescent="0.35">
-      <c r="B3" s="9" t="s">
+    <row r="3" spans="1:20" s="10" customFormat="1" ht="62" x14ac:dyDescent="0.35">
+      <c r="B3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="10" customFormat="1" ht="62" x14ac:dyDescent="0.35">
+      <c r="B4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="D4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" s="10" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="B5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="62" x14ac:dyDescent="0.35">
-      <c r="B4" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="31" x14ac:dyDescent="0.35">
-      <c r="B5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="D5" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="F5" s="10" t="s">
         <v>55</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C6" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C7" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="108.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="9" t="s">
+    <row r="8" spans="1:20" s="10" customFormat="1" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="B8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="10" customFormat="1" ht="124" x14ac:dyDescent="0.35">
+      <c r="C9" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="124" x14ac:dyDescent="0.35">
-      <c r="C8" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="31" x14ac:dyDescent="0.35">
-      <c r="B9" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="C10" s="9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="C10" s="9" t="s">
+      <c r="D10" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" s="10" customFormat="1" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="C12" s="10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" ht="31" x14ac:dyDescent="0.35">
-      <c r="B11" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="D12" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="62" x14ac:dyDescent="0.35">
+      <c r="B13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" ht="31" x14ac:dyDescent="0.35">
-      <c r="B12" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="D13" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="31" x14ac:dyDescent="0.35">
+      <c r="B14" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C15" s="9" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="C13" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B14" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B15" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B16" s="9" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C16" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B17" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B18" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" s="7" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" s="6"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5">
+        <v>1</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="R19" s="5"/>
+    </row>
+    <row r="20" spans="1:19" s="7" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B20" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="R20" s="5"/>
+      <c r="S20" s="6"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="C21" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:19" s="7" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K17" s="6"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5">
-        <v>1</v>
-      </c>
-      <c r="P17" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q17" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="R17" s="5"/>
-    </row>
-    <row r="18" spans="1:19" s="7" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="B18" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q18" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="R18" s="5"/>
-      <c r="S18" s="6"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="C19" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="31" x14ac:dyDescent="0.35">
-      <c r="B20" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B21" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" ht="31" x14ac:dyDescent="0.35">
       <c r="B22" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>28</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B23" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B24" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/inputs/E_CigO_fordiscussion.xlsx
+++ b/inputs/E_CigO_fordiscussion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Documents\GitHub\addiction-ontology\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82C0D70-3480-4631-8BC5-6C6CDCFC8E81}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC98EC09-D1DE-475F-9426-158BAE9F7F51}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CFD89471-969D-DA4E-B695-10E28209D64F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="83">
   <si>
     <t>ID</t>
   </si>
@@ -235,13 +235,52 @@
   </si>
   <si>
     <t>A government agency that muddies the waters on definition of tobacco products</t>
+  </si>
+  <si>
+    <t>A tobacco smoker who participates in tobacco smoking very day.</t>
+  </si>
+  <si>
+    <t>Past 30-day tobacco smoker</t>
+  </si>
+  <si>
+    <t>This refers to a current time frame for participation. This should be specified unless it is obviousl from context.</t>
+  </si>
+  <si>
+    <t>An ever-tobacco smoker who has participated in tobacco smoking within the past 30 days.</t>
+  </si>
+  <si>
+    <t>Ever-tobacco smoker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This includes any participation, including one puff on a single cigarette. It is in references to a current time frame that needs to be specfified unless it is bvious from the context. </t>
+  </si>
+  <si>
+    <t>Tobacco smoker identity</t>
+  </si>
+  <si>
+    <t>A mental representation that a person has about themselves.</t>
+  </si>
+  <si>
+    <t>Core identity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An identity </t>
+  </si>
+  <si>
+    <t>Self identity</t>
+  </si>
+  <si>
+    <t>The term 'self' sounds tautologous but is required to reflect the fact that this is not identity in terms of who you are but how you represent yourself to yourself.</t>
+  </si>
+  <si>
+    <t>An identity that in which a person represents themselves as a tobacco smoker.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -281,6 +320,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -302,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -332,6 +377,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -648,10 +696,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2F1A1D6-CE09-5741-871E-C0900D993FE1}">
-  <dimension ref="A1:T24"/>
+  <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -791,7 +842,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="10" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" s="10" customFormat="1" ht="108.5" x14ac:dyDescent="0.35">
       <c r="B5" s="10" t="s">
         <v>42</v>
       </c>
@@ -807,226 +858,282 @@
       <c r="F5" s="10" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="C6" s="9" t="s">
+      <c r="K5" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="10" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="C6" s="10" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="C7" s="9" t="s">
+      <c r="D6" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="10" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="C7" s="10" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" s="10" customFormat="1" ht="108.5" x14ac:dyDescent="0.35">
-      <c r="B8" s="10" t="s">
+      <c r="D7" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" s="10" customFormat="1" ht="170.5" x14ac:dyDescent="0.35">
+      <c r="C8" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="11" customFormat="1" ht="124" x14ac:dyDescent="0.35">
+      <c r="C9" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" s="11" customFormat="1" ht="62" x14ac:dyDescent="0.35">
+      <c r="C11" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" s="10" customFormat="1" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="B12" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C12" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D12" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E12" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="10" customFormat="1" ht="124" x14ac:dyDescent="0.35">
-      <c r="C9" s="10" t="s">
+    <row r="13" spans="1:20" s="10" customFormat="1" ht="124" x14ac:dyDescent="0.35">
+      <c r="C13" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D13" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E13" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="9" t="s">
+    <row r="14" spans="1:20" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="B14" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D14" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E14" s="9" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="C11" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" s="10" customFormat="1" ht="108.5" x14ac:dyDescent="0.35">
-      <c r="C12" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="62" x14ac:dyDescent="0.35">
-      <c r="B13" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="31" x14ac:dyDescent="0.35">
-      <c r="B14" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" s="10" customFormat="1" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="C16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="62" x14ac:dyDescent="0.35">
+      <c r="B17" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="31" x14ac:dyDescent="0.35">
+      <c r="B18" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="C19" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B16" s="9" t="s">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B20" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C20" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B17" s="9" t="s">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B21" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C21" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B18" s="9" t="s">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B22" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C22" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:19" s="7" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5" t="s">
+    <row r="23" spans="1:19" s="7" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F23" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G23" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5" t="s">
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="K19" s="6"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5">
+      <c r="K23" s="6"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5">
         <v>1</v>
       </c>
-      <c r="P19" s="5" t="s">
+      <c r="P23" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="Q19" s="5" t="s">
+      <c r="Q23" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="R19" s="5"/>
-    </row>
-    <row r="20" spans="1:19" s="7" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="B20" s="7" t="s">
+      <c r="R23" s="5"/>
+    </row>
+    <row r="24" spans="1:19" s="7" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B24" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D24" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E24" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5" t="s">
+      <c r="F24" s="5"/>
+      <c r="G24" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5" t="s">
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="Q20" s="5" t="s">
+      <c r="Q24" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="R20" s="5"/>
-      <c r="S20" s="6"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="C21" s="9" t="s">
+      <c r="R24" s="5"/>
+      <c r="S24" s="6"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="C25" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="31" x14ac:dyDescent="0.35">
-      <c r="B22" s="9" t="s">
+    <row r="26" spans="1:19" ht="31" x14ac:dyDescent="0.35">
+      <c r="B26" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C26" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B23" s="9" t="s">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B27" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C27" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B24" s="9" t="s">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B28" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C28" s="9" t="s">
         <v>27</v>
       </c>
     </row>

--- a/inputs/E_CigO_fordiscussion.xlsx
+++ b/inputs/E_CigO_fordiscussion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Documents\GitHub\addiction-ontology\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC98EC09-D1DE-475F-9426-158BAE9F7F51}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3BA35D-15F8-405A-844E-9AA0B47B6B96}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CFD89471-969D-DA4E-B695-10E28209D64F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="96">
   <si>
     <t>ID</t>
   </si>
@@ -216,9 +216,6 @@
     <t>A person who is close in age to the transition between childhood and adulthood.</t>
   </si>
   <si>
-    <t xml:space="preserve">An adult </t>
-  </si>
-  <si>
     <t>Adult</t>
   </si>
   <si>
@@ -274,6 +271,48 @@
   </si>
   <si>
     <t>An identity that in which a person represents themselves as a tobacco smoker.</t>
+  </si>
+  <si>
+    <t>Mental representation</t>
+  </si>
+  <si>
+    <t>The mental representation includes multiple aspects and some of these are social. For example, group memberships, cultural norms. Collective identity as a shared attribute of group is related to this but is separate.</t>
+  </si>
+  <si>
+    <t>Vaper identity</t>
+  </si>
+  <si>
+    <t>An identity that in which a person represents themselves as a vaper.</t>
+  </si>
+  <si>
+    <t>Identity in this case is the application of a label to oneself. The mental representation that this label references may be different in different people.</t>
+  </si>
+  <si>
+    <t>Positive smoker identity</t>
+  </si>
+  <si>
+    <t>Self-appraisal of identity</t>
+  </si>
+  <si>
+    <t>Positive self-appraisal of smoker identity</t>
+  </si>
+  <si>
+    <t>Appraisal in which the object of the appraisal is an aspect of one's own identity.</t>
+  </si>
+  <si>
+    <t>Aspect</t>
+  </si>
+  <si>
+    <t>A fiat part of a complex phenomenon that has salience in a particular context.</t>
+  </si>
+  <si>
+    <t>Needs the 'is about' relationship with self-identity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A person who has reached maturity. </t>
+  </si>
+  <si>
+    <t>For use in research contexts the minimum age needs to be specified.</t>
   </si>
 </sst>
 </file>
@@ -696,13 +735,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2F1A1D6-CE09-5741-871E-C0900D993FE1}">
-  <dimension ref="A1:T28"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -859,7 +898,7 @@
         <v>55</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="10" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
@@ -867,7 +906,7 @@
         <v>60</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>52</v>
@@ -878,7 +917,7 @@
         <v>61</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>52</v>
@@ -886,254 +925,304 @@
     </row>
     <row r="8" spans="1:20" s="10" customFormat="1" ht="170.5" x14ac:dyDescent="0.35">
       <c r="C8" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="K8" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="K8" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" s="11" customFormat="1" ht="124" x14ac:dyDescent="0.35">
-      <c r="C9" s="11" t="s">
+    </row>
+    <row r="9" spans="1:20" s="10" customFormat="1" ht="201.5" x14ac:dyDescent="0.35">
+      <c r="C9" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>81</v>
+      <c r="K9" s="10" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C10" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" s="11" customFormat="1" ht="62" x14ac:dyDescent="0.35">
-      <c r="C11" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" s="10" customFormat="1" ht="108.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="10" t="s">
+    </row>
+    <row r="11" spans="1:20" s="10" customFormat="1" ht="124" x14ac:dyDescent="0.35">
+      <c r="C11" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" s="10" customFormat="1" ht="62" x14ac:dyDescent="0.35">
+      <c r="C12" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" s="10" customFormat="1" ht="62" x14ac:dyDescent="0.35">
+      <c r="C13" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" s="11" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="C14" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" s="11" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="C15" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" s="10" customFormat="1" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="B16" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C16" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D16" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E16" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="10" customFormat="1" ht="124" x14ac:dyDescent="0.35">
-      <c r="C13" s="10" t="s">
+    <row r="17" spans="1:19" s="10" customFormat="1" ht="124" x14ac:dyDescent="0.35">
+      <c r="C17" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D17" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E17" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="B14" s="9" t="s">
+    <row r="18" spans="1:19" s="10" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="B18" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C18" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D18" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E18" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="C15" s="9" t="s">
+    <row r="19" spans="1:19" s="10" customFormat="1" ht="62" x14ac:dyDescent="0.35">
+      <c r="C19" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="N19" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" s="10" customFormat="1" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="C20" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" s="10" customFormat="1" ht="108.5" x14ac:dyDescent="0.35">
-      <c r="C16" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="10" t="s">
+      <c r="E20" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="F20" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="10" t="s">
+    </row>
+    <row r="21" spans="1:19" ht="62" x14ac:dyDescent="0.35">
+      <c r="B21" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="31" x14ac:dyDescent="0.35">
+      <c r="B22" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="62" x14ac:dyDescent="0.35">
-      <c r="B17" s="9" t="s">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="C23" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B24" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B25" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B26" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" s="7" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K27" s="6"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5">
+        <v>1</v>
+      </c>
+      <c r="P27" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q27" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="R27" s="5"/>
+    </row>
+    <row r="28" spans="1:19" s="7" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B28" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="31" x14ac:dyDescent="0.35">
-      <c r="B18" s="9" t="s">
+      <c r="C28" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="C19" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B20" s="9" t="s">
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q28" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="R28" s="5"/>
+      <c r="S28" s="6"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="C29" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="31" x14ac:dyDescent="0.35">
+      <c r="B30" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B31" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B21" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B22" s="9" t="s">
+      <c r="C31" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B32" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" s="7" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K23" s="6"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5">
-        <v>1</v>
-      </c>
-      <c r="P23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q23" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R23" s="5"/>
-    </row>
-    <row r="24" spans="1:19" s="7" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="B24" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q24" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R24" s="5"/>
-      <c r="S24" s="6"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="C25" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" ht="31" x14ac:dyDescent="0.35">
-      <c r="B26" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B27" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B28" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="9" t="s">
+      <c r="C32" s="9" t="s">
         <v>27</v>
       </c>
     </row>

--- a/inputs/E_CigO_fordiscussion.xlsx
+++ b/inputs/E_CigO_fordiscussion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Documents\GitHub\addiction-ontology\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3BA35D-15F8-405A-844E-9AA0B47B6B96}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F06278-03CD-4100-B204-592D2019920E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CFD89471-969D-DA4E-B695-10E28209D64F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="114">
   <si>
     <t>ID</t>
   </si>
@@ -87,15 +87,9 @@
     <t xml:space="preserve">Health risk </t>
   </si>
   <si>
-    <t>Food and Drugs Administration</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tobacco-related disease </t>
   </si>
   <si>
-    <t>Tobacco smoke</t>
-  </si>
-  <si>
     <t>Frequency of e-cigarette use</t>
   </si>
   <si>
@@ -231,9 +225,6 @@
     <t xml:space="preserve">Centres for Disease Control </t>
   </si>
   <si>
-    <t>A government agency that muddies the waters on definition of tobacco products</t>
-  </si>
-  <si>
     <t>A tobacco smoker who participates in tobacco smoking very day.</t>
   </si>
   <si>
@@ -313,13 +304,76 @@
   </si>
   <si>
     <t>For use in research contexts the minimum age needs to be specified.</t>
+  </si>
+  <si>
+    <t>Put company number</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Oragnisation</t>
+  </si>
+  <si>
+    <t>These are set up for pur[oses such as management of resources, financial oversight of industries, or national security issues. These organizations are typically created by legislative action, but may initially be set up by presidential order as well. The directors of these agencies are typically selected by Presidential appointment</t>
+  </si>
+  <si>
+    <t>A governmental organisation set up for a purpose.</t>
+  </si>
+  <si>
+    <t>Food and Drug Administration</t>
+  </si>
+  <si>
+    <t>The US government agency that has statutary responsibility for regulation of medicinal products.</t>
+  </si>
+  <si>
+    <t>Government agency</t>
+  </si>
+  <si>
+    <t>The US government agency that has responsibility for health protection.</t>
+  </si>
+  <si>
+    <t>Tobacco-caused disease</t>
+  </si>
+  <si>
+    <t>See also</t>
+  </si>
+  <si>
+    <t>Disease</t>
+  </si>
+  <si>
+    <t>A disease in which tobacco use has played a causal role.</t>
+  </si>
+  <si>
+    <t>A disease in which tobacco use is a sigificant risk factor.</t>
+  </si>
+  <si>
+    <t>Behaviour attribute</t>
+  </si>
+  <si>
+    <t>A behaviour attribute that involves the number of e-cigarette use events over a specified time period.</t>
+  </si>
+  <si>
+    <t>When using this class it is essential to specify the nature of the event and the time period.</t>
+  </si>
+  <si>
+    <t>A person used an e-cigarette daily; a person used an cigarette more than three times per week; a person took 10 e-cigarette puffs in a 30 minute period.</t>
+  </si>
+  <si>
+    <t>A behaviour attribute that involves the length of time that e-cigarettes have been used for.</t>
+  </si>
+  <si>
+    <t>This refers to the aggregate of use episodes in a person's history not a single e-cigarette use episode. That is covered by 'Diration of e-cigarette use episode'.</t>
+  </si>
+  <si>
+    <t>A person use e-cigarettes for 3 years.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -365,6 +419,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -386,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -419,6 +481,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -735,13 +803,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2F1A1D6-CE09-5741-871E-C0900D993FE1}">
-  <dimension ref="A1:T32"/>
+  <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="I27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomRight" activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -750,28 +818,29 @@
     <col min="3" max="3" width="27.33203125" style="9" customWidth="1"/>
     <col min="4" max="4" width="23.83203125" style="9" customWidth="1"/>
     <col min="5" max="5" width="21" style="9" customWidth="1"/>
-    <col min="6" max="6" width="16.83203125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="17" style="9" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" style="9" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" style="9" customWidth="1"/>
-    <col min="10" max="10" width="17" style="9" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" style="9" customWidth="1"/>
-    <col min="12" max="12" width="16.6640625" style="9" customWidth="1"/>
-    <col min="13" max="13" width="18.83203125" style="9" customWidth="1"/>
-    <col min="14" max="14" width="17.6640625" style="9" customWidth="1"/>
-    <col min="15" max="16" width="19.83203125" style="9" customWidth="1"/>
-    <col min="17" max="17" width="24" style="9" customWidth="1"/>
-    <col min="18" max="18" width="19.1640625" style="9" customWidth="1"/>
-    <col min="19" max="19" width="20.1640625" style="9" customWidth="1"/>
-    <col min="20" max="16384" width="10.6640625" style="9"/>
+    <col min="6" max="6" width="17.9140625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="17" style="9" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" style="9" customWidth="1"/>
+    <col min="11" max="11" width="17" style="9" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" style="9" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" style="9" customWidth="1"/>
+    <col min="14" max="14" width="18.83203125" style="9" customWidth="1"/>
+    <col min="15" max="15" width="17.6640625" style="9" customWidth="1"/>
+    <col min="16" max="17" width="19.83203125" style="9" customWidth="1"/>
+    <col min="18" max="18" width="24" style="9" customWidth="1"/>
+    <col min="19" max="19" width="19.1640625" style="9" customWidth="1"/>
+    <col min="20" max="20" width="20.1640625" style="9" customWidth="1"/>
+    <col min="21" max="16384" width="10.6640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>1</v>
@@ -783,49 +852,55 @@
         <v>3</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="T1" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" s="4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="U1" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
@@ -836,394 +911,459 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="3"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
-      <c r="R2" s="1"/>
+      <c r="R2" s="2"/>
       <c r="S2" s="1"/>
-      <c r="T2" s="2"/>
-    </row>
-    <row r="3" spans="1:20" s="10" customFormat="1" ht="62" x14ac:dyDescent="0.35">
+      <c r="T2" s="1"/>
+      <c r="U2" s="2"/>
+    </row>
+    <row r="3" spans="1:21" s="10" customFormat="1" ht="62" x14ac:dyDescent="0.35">
       <c r="B3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="10" customFormat="1" ht="62" x14ac:dyDescent="0.35">
+      <c r="B4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="10" t="s">
+      <c r="E4" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="10" customFormat="1" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="B5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="10" t="s">
+      <c r="E5" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="10" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="C6" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="10" customFormat="1" ht="62" x14ac:dyDescent="0.35">
-      <c r="B4" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="10" t="s">
+    <row r="7" spans="1:21" s="10" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="C7" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="10" customFormat="1" ht="108.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="10" t="s">
+    <row r="8" spans="1:21" s="10" customFormat="1" ht="170.5" x14ac:dyDescent="0.35">
+      <c r="C8" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" s="10" customFormat="1" ht="201.5" x14ac:dyDescent="0.35">
+      <c r="C9" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" s="10" customFormat="1" ht="124" x14ac:dyDescent="0.35">
+      <c r="C11" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" s="10" customFormat="1" ht="62" x14ac:dyDescent="0.35">
+      <c r="C12" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" s="10" customFormat="1" ht="62" x14ac:dyDescent="0.35">
+      <c r="C13" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" s="11" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="C14" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" s="11" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="C15" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" s="10" customFormat="1" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="B16" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="D16" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" s="10" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="C6" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" s="10" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="C7" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" s="10" customFormat="1" ht="170.5" x14ac:dyDescent="0.35">
-      <c r="C8" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" s="10" customFormat="1" ht="201.5" x14ac:dyDescent="0.35">
-      <c r="C9" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" s="10" customFormat="1" ht="124" x14ac:dyDescent="0.35">
-      <c r="C11" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" s="10" customFormat="1" ht="62" x14ac:dyDescent="0.35">
-      <c r="C12" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" s="10" customFormat="1" ht="62" x14ac:dyDescent="0.35">
-      <c r="C13" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" s="11" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="C14" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" s="11" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="C15" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" s="10" customFormat="1" ht="108.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="10" t="s">
+      <c r="E16" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" s="10" customFormat="1" ht="124" x14ac:dyDescent="0.35">
+      <c r="C17" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D17" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E17" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" s="10" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="B18" s="10" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" s="10" customFormat="1" ht="124" x14ac:dyDescent="0.35">
-      <c r="C17" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" s="10" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="10" t="s">
-        <v>42</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" s="10" customFormat="1" ht="62" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" s="10" customFormat="1" ht="62" x14ac:dyDescent="0.35">
       <c r="C19" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="K19" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="N19" s="10">
+        <v>91</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="O19" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:19" s="10" customFormat="1" ht="108.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" s="10" customFormat="1" ht="108.5" x14ac:dyDescent="0.35">
       <c r="C20" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="10" t="s">
+    </row>
+    <row r="21" spans="1:20" ht="62" x14ac:dyDescent="0.35">
+      <c r="B21" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="T21" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="310" x14ac:dyDescent="0.35">
+      <c r="B22" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="B23" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F20" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="62" x14ac:dyDescent="0.35">
-      <c r="B21" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="9" t="s">
+      <c r="D23" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" s="10" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="C24" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="31" x14ac:dyDescent="0.35">
-      <c r="B22" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="C23" s="9" t="s">
+      <c r="D24" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" s="10" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="C25" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" s="10" customFormat="1" ht="139.5" x14ac:dyDescent="0.35">
+      <c r="B26" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B24" s="9" t="s">
+      <c r="D26" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" s="12" customFormat="1" ht="139.5" x14ac:dyDescent="0.35">
+      <c r="B27" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="L27" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="M27" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" s="7" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B25" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B26" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" s="7" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K27" s="6"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5">
-        <v>1</v>
-      </c>
-      <c r="P27" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q27" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R27" s="5"/>
-    </row>
-    <row r="28" spans="1:19" s="7" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="B28" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>36</v>
-      </c>
       <c r="E28" s="5" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F28" s="5"/>
-      <c r="G28" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H28" s="5"/>
+      <c r="G28" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="5"/>
+      <c r="K28" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L28" s="6"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
-      <c r="P28" s="5" t="s">
+      <c r="P28" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R28" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="S28" s="5"/>
+    </row>
+    <row r="29" spans="1:20" s="7" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B29" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="Q28" s="5" t="s">
+      <c r="D29" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="R28" s="5"/>
-      <c r="S28" s="6"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="C29" s="9" t="s">
+      <c r="E29" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R29" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="S29" s="5"/>
+      <c r="T29" s="6"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C30" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="31" x14ac:dyDescent="0.35">
+      <c r="B31" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B32" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B33" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" ht="31" x14ac:dyDescent="0.35">
-      <c r="B30" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B31" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B32" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/inputs/E_CigO_fordiscussion.xlsx
+++ b/inputs/E_CigO_fordiscussion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Documents\GitHub\addiction-ontology\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F06278-03CD-4100-B204-592D2019920E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626C4751-E36D-483D-884B-8C859B5DA5E2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CFD89471-969D-DA4E-B695-10E28209D64F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="127">
   <si>
     <t>ID</t>
   </si>
@@ -99,12 +99,6 @@
     <t xml:space="preserve">E-cigarette policy </t>
   </si>
   <si>
-    <t xml:space="preserve">Nicotine strength </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Real-world user behaviour </t>
-  </si>
-  <si>
     <t>Independent continuant</t>
   </si>
   <si>
@@ -252,9 +246,6 @@
     <t>Core identity</t>
   </si>
   <si>
-    <t xml:space="preserve">An identity </t>
-  </si>
-  <si>
     <t>Self identity</t>
   </si>
   <si>
@@ -285,9 +276,6 @@
     <t>Self-appraisal of identity</t>
   </si>
   <si>
-    <t>Positive self-appraisal of smoker identity</t>
-  </si>
-  <si>
     <t>Appraisal in which the object of the appraisal is an aspect of one's own identity.</t>
   </si>
   <si>
@@ -367,13 +355,64 @@
   </si>
   <si>
     <t>A person use e-cigarettes for 3 years.</t>
+  </si>
+  <si>
+    <t>A behaviour attribute that involves the length of time that an episode of e-cigarette use lasts.</t>
+  </si>
+  <si>
+    <t>Duration of e-cigarette use episode</t>
+  </si>
+  <si>
+    <t>This refers to the duration of a single episode of e-cigarette use by a person. This can be aggregated across episodes using statistics such as mea, median etc.</t>
+  </si>
+  <si>
+    <t>A policy that regulates e-cigarettes or their use.</t>
+  </si>
+  <si>
+    <t>Policy</t>
+  </si>
+  <si>
+    <t>Includes manufacture, marketing, and sales. Includes public policy and policy of other organisations.</t>
+  </si>
+  <si>
+    <t>A person who participates in policy making.</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Real-world e-cigarette use </t>
+  </si>
+  <si>
+    <t>E-cigarette use that occurs in the person usual environment.</t>
+  </si>
+  <si>
+    <t>E-cigarette use</t>
+  </si>
+  <si>
+    <t>This is distinct from in a laboratory setting.</t>
+  </si>
+  <si>
+    <t>Positive self-appraisal of tobacco smoker identity</t>
+  </si>
+  <si>
+    <t>Self-appraisal of tobacco smoker identity</t>
+  </si>
+  <si>
+    <t>Self-appraisal of tobacco smoker identity that construes it as good.</t>
+  </si>
+  <si>
+    <t>An identity that is enduring and important to the person whose has the identity.</t>
+  </si>
+  <si>
+    <t>Identity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -401,20 +440,8 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -448,7 +475,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -462,31 +489,16 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -806,98 +818,98 @@
   <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M28" sqref="M28"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="10.6640625" style="9"/>
-    <col min="3" max="3" width="27.33203125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="23.83203125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="21" style="9" customWidth="1"/>
-    <col min="6" max="6" width="17.9140625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="16.83203125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="17" style="9" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" style="9" customWidth="1"/>
-    <col min="10" max="10" width="20.33203125" style="9" customWidth="1"/>
-    <col min="11" max="11" width="17" style="9" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" style="9" customWidth="1"/>
-    <col min="13" max="13" width="16.6640625" style="9" customWidth="1"/>
-    <col min="14" max="14" width="18.83203125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="17.6640625" style="9" customWidth="1"/>
-    <col min="16" max="17" width="19.83203125" style="9" customWidth="1"/>
-    <col min="18" max="18" width="24" style="9" customWidth="1"/>
-    <col min="19" max="19" width="19.1640625" style="9" customWidth="1"/>
-    <col min="20" max="20" width="20.1640625" style="9" customWidth="1"/>
-    <col min="21" max="16384" width="10.6640625" style="9"/>
+    <col min="1" max="2" width="10.6640625" style="6"/>
+    <col min="3" max="3" width="27.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="21" style="6" customWidth="1"/>
+    <col min="6" max="6" width="17.9140625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="17" style="6" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="17" style="6" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" style="6" customWidth="1"/>
+    <col min="14" max="14" width="18.83203125" style="6" customWidth="1"/>
+    <col min="15" max="15" width="17.6640625" style="6" customWidth="1"/>
+    <col min="16" max="17" width="19.83203125" style="6" customWidth="1"/>
+    <col min="18" max="18" width="24" style="6" customWidth="1"/>
+    <col min="19" max="19" width="19.1640625" style="6" customWidth="1"/>
+    <col min="20" max="20" width="20.1640625" style="6" customWidth="1"/>
+    <col min="21" max="16384" width="10.6640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="G1" s="8" t="s">
+      <c r="F1" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="T1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="13" t="s">
-        <v>103</v>
+      <c r="U1" s="8" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -923,447 +935,489 @@
       <c r="T2" s="1"/>
       <c r="U2" s="2"/>
     </row>
-    <row r="3" spans="1:21" s="10" customFormat="1" ht="62" x14ac:dyDescent="0.35">
-      <c r="B3" s="10" t="s">
+    <row r="3" spans="1:21" s="7" customFormat="1" ht="62" x14ac:dyDescent="0.35">
+      <c r="B3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="7" customFormat="1" ht="62" x14ac:dyDescent="0.35">
+      <c r="B4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="10" t="s">
+      <c r="E4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="7" customFormat="1" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="B5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="10" t="s">
+      <c r="E5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="7" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="C6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="10" customFormat="1" ht="62" x14ac:dyDescent="0.35">
-      <c r="B4" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="10" t="s">
+    <row r="7" spans="1:21" s="7" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="C7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="10" customFormat="1" ht="108.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="10" t="s">
+    <row r="8" spans="1:21" s="7" customFormat="1" ht="170.5" x14ac:dyDescent="0.35">
+      <c r="C8" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" s="7" customFormat="1" ht="201.5" x14ac:dyDescent="0.35">
+      <c r="C9" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" s="7" customFormat="1" ht="62" x14ac:dyDescent="0.35">
+      <c r="C10" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" s="7" customFormat="1" ht="124" x14ac:dyDescent="0.35">
+      <c r="C11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" s="7" customFormat="1" ht="62" x14ac:dyDescent="0.35">
+      <c r="C12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" s="7" customFormat="1" ht="62" x14ac:dyDescent="0.35">
+      <c r="C13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" s="7" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="C14" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" s="7" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="C15" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" s="7" customFormat="1" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="B16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" s="7" customFormat="1" ht="124" x14ac:dyDescent="0.35">
+      <c r="C17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" s="7" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="B18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" s="10" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="C6" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" s="10" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="C7" s="10" t="s">
+    </row>
+    <row r="19" spans="1:20" s="7" customFormat="1" ht="62" x14ac:dyDescent="0.35">
+      <c r="C19" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" s="10" customFormat="1" ht="170.5" x14ac:dyDescent="0.35">
-      <c r="C8" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" s="10" customFormat="1" ht="201.5" x14ac:dyDescent="0.35">
-      <c r="C9" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" s="10" customFormat="1" ht="124" x14ac:dyDescent="0.35">
-      <c r="C11" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" s="10" customFormat="1" ht="62" x14ac:dyDescent="0.35">
-      <c r="C12" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="10" t="s">
+      <c r="D19" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="J12" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" s="10" customFormat="1" ht="62" x14ac:dyDescent="0.35">
-      <c r="C13" s="10" t="s">
+      <c r="L19" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="O19" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" s="7" customFormat="1" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="C20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" s="7" customFormat="1" ht="62" x14ac:dyDescent="0.35">
+      <c r="B21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="T21" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="11" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="C14" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" s="11" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="C15" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" s="10" customFormat="1" ht="108.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="10" t="s">
+    <row r="22" spans="1:20" s="7" customFormat="1" ht="310" x14ac:dyDescent="0.35">
+      <c r="B22" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="B23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" s="7" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="C24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" s="7" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="C25" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" s="7" customFormat="1" ht="139.5" x14ac:dyDescent="0.35">
+      <c r="B26" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" s="7" customFormat="1" ht="139.5" x14ac:dyDescent="0.35">
+      <c r="B27" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" s="7" customFormat="1" ht="139.5" x14ac:dyDescent="0.35">
+      <c r="B28" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L29" s="3"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S29" s="2"/>
+    </row>
+    <row r="30" spans="1:20" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S30" s="2"/>
+      <c r="T30" s="3"/>
+    </row>
+    <row r="31" spans="1:20" s="7" customFormat="1" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="C31" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" s="7" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="B32" s="7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" s="10" customFormat="1" ht="124" x14ac:dyDescent="0.35">
-      <c r="C17" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" s="10" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" s="10" customFormat="1" ht="62" x14ac:dyDescent="0.35">
-      <c r="C19" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="L19" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="O19" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" s="10" customFormat="1" ht="108.5" x14ac:dyDescent="0.35">
-      <c r="C20" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="62" x14ac:dyDescent="0.35">
-      <c r="B21" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="T21" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" ht="310" x14ac:dyDescent="0.35">
-      <c r="B22" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="L22" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="B23" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" s="10" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="C24" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" s="10" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="C25" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" s="10" customFormat="1" ht="139.5" x14ac:dyDescent="0.35">
-      <c r="B26" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="L26" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="M26" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" s="12" customFormat="1" ht="139.5" x14ac:dyDescent="0.35">
-      <c r="B27" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="L27" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="M27" s="12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" s="7" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L28" s="6"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="R28" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="S28" s="5"/>
-    </row>
-    <row r="29" spans="1:20" s="7" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="B29" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="5" t="s">
+      <c r="C32" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="R29" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="S29" s="5"/>
-      <c r="T29" s="6"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="C30" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" ht="31" x14ac:dyDescent="0.35">
-      <c r="B31" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="9" t="s">
+      <c r="D32" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" s="7" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="B33" s="7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B32" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B33" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>25</v>
+      <c r="C33" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/inputs/E_CigO_fordiscussion.xlsx
+++ b/inputs/E_CigO_fordiscussion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10115"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Documents\GitHub\addiction-ontology\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharoncox/Documents/GitHub/addiction-ontology/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626C4751-E36D-483D-884B-8C859B5DA5E2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6D57DD-71C6-8241-A256-BD961A918C92}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CFD89471-969D-DA4E-B695-10E28209D64F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{CFD89471-969D-DA4E-B695-10E28209D64F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="128">
   <si>
     <t>ID</t>
   </si>
@@ -406,6 +406,9 @@
   </si>
   <si>
     <t>Identity</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
@@ -818,19 +821,19 @@
   <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="10.6640625" style="6"/>
     <col min="3" max="3" width="27.33203125" style="6" customWidth="1"/>
     <col min="4" max="4" width="23.83203125" style="6" customWidth="1"/>
     <col min="5" max="5" width="21" style="6" customWidth="1"/>
-    <col min="6" max="6" width="17.9140625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" style="6" customWidth="1"/>
     <col min="7" max="7" width="16.83203125" style="6" customWidth="1"/>
     <col min="8" max="8" width="17" style="6" customWidth="1"/>
     <col min="9" max="9" width="18.33203125" style="6" customWidth="1"/>
@@ -847,7 +850,7 @@
     <col min="21" max="16384" width="10.6640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -912,7 +915,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
@@ -935,7 +938,10 @@
       <c r="T2" s="1"/>
       <c r="U2" s="2"/>
     </row>
-    <row r="3" spans="1:21" s="7" customFormat="1" ht="62" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" s="7" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>127</v>
+      </c>
       <c r="B3" s="7" t="s">
         <v>42</v>
       </c>
@@ -952,7 +958,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="7" customFormat="1" ht="62" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" s="7" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>127</v>
+      </c>
       <c r="B4" s="7" t="s">
         <v>42</v>
       </c>
@@ -969,7 +978,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="7" customFormat="1" ht="108.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" s="7" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>127</v>
+      </c>
       <c r="B5" s="7" t="s">
         <v>38</v>
       </c>
@@ -989,7 +1001,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="7" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>127</v>
+      </c>
       <c r="C6" s="7" t="s">
         <v>56</v>
       </c>
@@ -1000,7 +1015,10 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="7" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>127</v>
+      </c>
       <c r="C7" s="7" t="s">
         <v>57</v>
       </c>
@@ -1011,7 +1029,10 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="7" customFormat="1" ht="170.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" s="7" customFormat="1" ht="187" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>127</v>
+      </c>
       <c r="C8" s="7" t="s">
         <v>65</v>
       </c>
@@ -1025,7 +1046,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="7" customFormat="1" ht="201.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" s="7" customFormat="1" ht="221" x14ac:dyDescent="0.2">
       <c r="C9" s="7" t="s">
         <v>73</v>
       </c>
@@ -1042,7 +1063,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="7" customFormat="1" ht="62" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" s="7" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="C10" s="7" t="s">
         <v>72</v>
       </c>
@@ -1053,7 +1074,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="7" customFormat="1" ht="124" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" s="7" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="C11" s="7" t="s">
         <v>70</v>
       </c>
@@ -1064,7 +1085,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="7" customFormat="1" ht="62" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" s="7" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="C12" s="7" t="s">
         <v>82</v>
       </c>
@@ -1075,7 +1096,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="7" customFormat="1" ht="62" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" s="7" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="C13" s="7" t="s">
         <v>84</v>
       </c>
@@ -1083,7 +1104,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="7" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="C14" s="7" t="s">
         <v>122</v>
       </c>
@@ -1097,7 +1118,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="7" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="C15" s="7" t="s">
         <v>78</v>
       </c>
@@ -1105,7 +1126,10 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="7" customFormat="1" ht="108.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" s="7" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>127</v>
+      </c>
       <c r="B16" s="7" t="s">
         <v>37</v>
       </c>
@@ -1119,7 +1143,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:20" s="7" customFormat="1" ht="124" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" s="7" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>127</v>
+      </c>
       <c r="C17" s="7" t="s">
         <v>54</v>
       </c>
@@ -1130,7 +1157,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:20" s="7" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" s="7" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>127</v>
+      </c>
       <c r="B18" s="7" t="s">
         <v>38</v>
       </c>
@@ -1144,7 +1174,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="7" customFormat="1" ht="62" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" s="7" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>127</v>
+      </c>
       <c r="C19" s="7" t="s">
         <v>59</v>
       </c>
@@ -1158,7 +1191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:20" s="7" customFormat="1" ht="108.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" s="7" customFormat="1" ht="119" x14ac:dyDescent="0.2">
       <c r="C20" s="7" t="s">
         <v>19</v>
       </c>
@@ -1172,7 +1205,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:20" s="7" customFormat="1" ht="62" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" s="7" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="B21" s="7" t="s">
         <v>34</v>
       </c>
@@ -1189,7 +1222,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:20" s="7" customFormat="1" ht="310" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" s="7" customFormat="1" ht="340" x14ac:dyDescent="0.2">
       <c r="B22" s="7" t="s">
         <v>91</v>
       </c>
@@ -1206,7 +1239,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="B23" s="6" t="s">
         <v>34</v>
       </c>
@@ -1220,7 +1253,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:20" s="7" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="C24" s="7" t="s">
         <v>20</v>
       </c>
@@ -1231,7 +1264,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:20" s="7" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="C25" s="7" t="s">
         <v>98</v>
       </c>
@@ -1242,7 +1275,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:20" s="7" customFormat="1" ht="139.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" s="7" customFormat="1" ht="170" x14ac:dyDescent="0.2">
       <c r="B26" s="7" t="s">
         <v>37</v>
       </c>
@@ -1262,7 +1295,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:20" s="7" customFormat="1" ht="139.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" s="7" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="B27" s="7" t="s">
         <v>37</v>
       </c>
@@ -1282,7 +1315,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:20" s="7" customFormat="1" ht="139.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20" s="7" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="B28" s="7" t="s">
         <v>37</v>
       </c>
@@ -1299,8 +1332,10 @@
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:20" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A29" s="2"/>
+    <row r="29" spans="1:20" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="B29" s="2" t="s">
         <v>25</v>
       </c>
@@ -1340,7 +1375,7 @@
       </c>
       <c r="S29" s="2"/>
     </row>
-    <row r="30" spans="1:20" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>34</v>
       </c>
@@ -1375,7 +1410,10 @@
       <c r="S30" s="2"/>
       <c r="T30" s="3"/>
     </row>
-    <row r="31" spans="1:20" s="7" customFormat="1" ht="108.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" s="7" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
+        <v>127</v>
+      </c>
       <c r="C31" s="7" t="s">
         <v>23</v>
       </c>
@@ -1389,7 +1427,10 @@
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="1:20" s="7" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
+        <v>127</v>
+      </c>
       <c r="B32" s="7" t="s">
         <v>38</v>
       </c>
@@ -1403,7 +1444,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="2:12" s="7" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:12" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="B33" s="7" t="s">
         <v>37</v>
       </c>

--- a/inputs/E_CigO_fordiscussion.xlsx
+++ b/inputs/E_CigO_fordiscussion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharoncox/Documents/GitHub/addiction-ontology/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6D57DD-71C6-8241-A256-BD961A918C92}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58DDC1ED-6880-5643-AFC9-F136811C1478}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{CFD89471-969D-DA4E-B695-10E28209D64F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14420" xr2:uid="{CFD89471-969D-DA4E-B695-10E28209D64F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="128">
   <si>
     <t>ID</t>
   </si>
@@ -821,10 +821,10 @@
   <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
+      <selection pane="bottomRight" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1444,7 +1444,10 @@
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="2:12" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
+        <v>127</v>
+      </c>
       <c r="B33" s="7" t="s">
         <v>37</v>
       </c>

--- a/inputs/E_CigO_fordiscussion.xlsx
+++ b/inputs/E_CigO_fordiscussion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharoncox/Documents/GitHub/addiction-ontology/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58DDC1ED-6880-5643-AFC9-F136811C1478}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E36D013-7F87-1544-AA01-92901D9EBC74}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14420" xr2:uid="{CFD89471-969D-DA4E-B695-10E28209D64F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="128">
   <si>
     <t>ID</t>
   </si>
@@ -821,10 +821,10 @@
   <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A31" sqref="A31"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1047,6 +1047,9 @@
       </c>
     </row>
     <row r="9" spans="1:21" s="7" customFormat="1" ht="221" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>127</v>
+      </c>
       <c r="C9" s="7" t="s">
         <v>73</v>
       </c>
@@ -1064,6 +1067,9 @@
       </c>
     </row>
     <row r="10" spans="1:21" s="7" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>127</v>
+      </c>
       <c r="C10" s="7" t="s">
         <v>72</v>
       </c>
@@ -1075,6 +1081,9 @@
       </c>
     </row>
     <row r="11" spans="1:21" s="7" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>127</v>
+      </c>
       <c r="C11" s="7" t="s">
         <v>70</v>
       </c>

--- a/inputs/E_CigO_fordiscussion.xlsx
+++ b/inputs/E_CigO_fordiscussion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharoncox/Documents/GitHub/addiction-ontology/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E36D013-7F87-1544-AA01-92901D9EBC74}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C365D9-4B2B-AA49-BE6F-6C43D01D84DB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14420" xr2:uid="{CFD89471-969D-DA4E-B695-10E28209D64F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="128">
   <si>
     <t>ID</t>
   </si>
@@ -821,10 +821,10 @@
   <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1136,9 +1136,6 @@
       </c>
     </row>
     <row r="16" spans="1:21" s="7" customFormat="1" ht="119" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>127</v>
-      </c>
       <c r="B16" s="7" t="s">
         <v>37</v>
       </c>
@@ -1153,9 +1150,6 @@
       </c>
     </row>
     <row r="17" spans="1:20" s="7" customFormat="1" ht="136" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>127</v>
-      </c>
       <c r="C17" s="7" t="s">
         <v>54</v>
       </c>
@@ -1453,10 +1447,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
-        <v>127</v>
-      </c>
+    <row r="33" spans="2:12" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="B33" s="7" t="s">
         <v>37</v>
       </c>

--- a/inputs/E_CigO_fordiscussion.xlsx
+++ b/inputs/E_CigO_fordiscussion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharoncox/Documents/GitHub/addiction-ontology/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C365D9-4B2B-AA49-BE6F-6C43D01D84DB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF29DA93-EEAC-E741-8B6E-174842CC5CF1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14420" xr2:uid="{CFD89471-969D-DA4E-B695-10E28209D64F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" xr2:uid="{CFD89471-969D-DA4E-B695-10E28209D64F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="128">
   <si>
     <t>ID</t>
   </si>
@@ -821,10 +821,10 @@
   <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1136,6 +1136,9 @@
       </c>
     </row>
     <row r="16" spans="1:21" s="7" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>127</v>
+      </c>
       <c r="B16" s="7" t="s">
         <v>37</v>
       </c>
@@ -1150,6 +1153,9 @@
       </c>
     </row>
     <row r="17" spans="1:20" s="7" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>127</v>
+      </c>
       <c r="C17" s="7" t="s">
         <v>54</v>
       </c>

--- a/inputs/E_CigO_fordiscussion.xlsx
+++ b/inputs/E_CigO_fordiscussion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharoncox/Documents/GitHub/addiction-ontology/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF29DA93-EEAC-E741-8B6E-174842CC5CF1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B38FF7E-8AC3-1D45-856A-CFA501139105}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" xr2:uid="{CFD89471-969D-DA4E-B695-10E28209D64F}"/>
+    <workbookView xWindow="8460" yWindow="1660" windowWidth="17140" windowHeight="13120" xr2:uid="{CFD89471-969D-DA4E-B695-10E28209D64F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="128">
   <si>
     <t>ID</t>
   </si>
@@ -821,10 +821,10 @@
   <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="N30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomRight" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1305,6 +1305,9 @@
       </c>
     </row>
     <row r="27" spans="1:20" s="7" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>127</v>
+      </c>
       <c r="B27" s="7" t="s">
         <v>37</v>
       </c>
@@ -1325,6 +1328,9 @@
       </c>
     </row>
     <row r="28" spans="1:20" s="7" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
+        <v>127</v>
+      </c>
       <c r="B28" s="7" t="s">
         <v>37</v>
       </c>

--- a/inputs/E_CigO_fordiscussion.xlsx
+++ b/inputs/E_CigO_fordiscussion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharoncox/Documents/GitHub/addiction-ontology/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B38FF7E-8AC3-1D45-856A-CFA501139105}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0892F063-78D5-484A-B3B1-21257AA75619}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8460" yWindow="1660" windowWidth="17140" windowHeight="13120" xr2:uid="{CFD89471-969D-DA4E-B695-10E28209D64F}"/>
   </bookViews>
@@ -821,10 +821,10 @@
   <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="N30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C33" sqref="C33"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/inputs/E_CigO_fordiscussion.xlsx
+++ b/inputs/E_CigO_fordiscussion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharoncox/Documents/GitHub/addiction-ontology/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0892F063-78D5-484A-B3B1-21257AA75619}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9867E0BB-F20D-894C-A4F6-FFD31C509387}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8460" yWindow="1660" windowWidth="17140" windowHeight="13120" xr2:uid="{CFD89471-969D-DA4E-B695-10E28209D64F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="129">
   <si>
     <t>ID</t>
   </si>
@@ -409,6 +409,9 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t>**</t>
   </si>
 </sst>
 </file>
@@ -821,10 +824,10 @@
   <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -940,7 +943,7 @@
     </row>
     <row r="3" spans="1:21" s="7" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>42</v>
@@ -960,7 +963,7 @@
     </row>
     <row r="4" spans="1:21" s="7" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>42</v>
@@ -980,7 +983,7 @@
     </row>
     <row r="5" spans="1:21" s="7" customFormat="1" ht="119" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>38</v>
@@ -1003,7 +1006,7 @@
     </row>
     <row r="6" spans="1:21" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>56</v>
@@ -1082,7 +1085,7 @@
     </row>
     <row r="11" spans="1:21" s="7" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>70</v>

--- a/inputs/E_CigO_fordiscussion.xlsx
+++ b/inputs/E_CigO_fordiscussion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharoncox/Documents/GitHub/addiction-ontology/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9867E0BB-F20D-894C-A4F6-FFD31C509387}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2606D6E0-41DB-684D-A090-FB18A3AD54F5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8460" yWindow="1660" windowWidth="17140" windowHeight="13120" xr2:uid="{CFD89471-969D-DA4E-B695-10E28209D64F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{CFD89471-969D-DA4E-B695-10E28209D64F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="130">
   <si>
     <t>ID</t>
   </si>
@@ -396,9 +396,6 @@
     <t>Positive self-appraisal of tobacco smoker identity</t>
   </si>
   <si>
-    <t>Self-appraisal of tobacco smoker identity</t>
-  </si>
-  <si>
     <t>Self-appraisal of tobacco smoker identity that construes it as good.</t>
   </si>
   <si>
@@ -412,13 +409,19 @@
   </si>
   <si>
     <t>**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Appraisal </t>
+  </si>
+  <si>
+    <t>Occurrent</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -460,6 +463,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -481,7 +492,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -505,6 +516,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -824,10 +838,10 @@
   <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -943,7 +957,7 @@
     </row>
     <row r="3" spans="1:21" s="7" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>42</v>
@@ -963,7 +977,7 @@
     </row>
     <row r="4" spans="1:21" s="7" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>42</v>
@@ -983,7 +997,7 @@
     </row>
     <row r="5" spans="1:21" s="7" customFormat="1" ht="119" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>38</v>
@@ -1006,7 +1020,7 @@
     </row>
     <row r="6" spans="1:21" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>56</v>
@@ -1020,7 +1034,7 @@
     </row>
     <row r="7" spans="1:21" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>57</v>
@@ -1034,7 +1048,7 @@
     </row>
     <row r="8" spans="1:21" s="7" customFormat="1" ht="187" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>65</v>
@@ -1051,7 +1065,7 @@
     </row>
     <row r="9" spans="1:21" s="7" customFormat="1" ht="221" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>73</v>
@@ -1071,27 +1085,30 @@
     </row>
     <row r="10" spans="1:21" s="7" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>72</v>
       </c>
       <c r="D10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:21" s="7" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>70</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>75</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>80</v>
@@ -1104,6 +1121,9 @@
       <c r="D12" s="7" t="s">
         <v>83</v>
       </c>
+      <c r="E12" s="9" t="s">
+        <v>128</v>
+      </c>
       <c r="J12" s="7" t="s">
         <v>86</v>
       </c>
@@ -1115,16 +1135,19 @@
       <c r="D13" s="7" t="s">
         <v>85</v>
       </c>
+      <c r="E13" s="9" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="14" spans="1:21" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="C14" s="7" t="s">
         <v>122</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E14" s="7" t="s">
         <v>123</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>81</v>
@@ -1137,10 +1160,13 @@
       <c r="D15" s="7" t="s">
         <v>79</v>
       </c>
+      <c r="E15" s="9" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="16" spans="1:21" s="7" customFormat="1" ht="119" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>37</v>
@@ -1157,7 +1183,7 @@
     </row>
     <row r="17" spans="1:20" s="7" customFormat="1" ht="136" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>54</v>
@@ -1171,7 +1197,7 @@
     </row>
     <row r="18" spans="1:20" s="7" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>38</v>
@@ -1188,13 +1214,16 @@
     </row>
     <row r="19" spans="1:20" s="7" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>87</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>88</v>
@@ -1309,7 +1338,7 @@
     </row>
     <row r="27" spans="1:20" s="7" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>37</v>
@@ -1332,7 +1361,7 @@
     </row>
     <row r="28" spans="1:20" s="7" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>37</v>
@@ -1352,7 +1381,7 @@
     </row>
     <row r="29" spans="1:20" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>25</v>
@@ -1430,7 +1459,7 @@
     </row>
     <row r="31" spans="1:20" s="7" customFormat="1" ht="119" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>23</v>
@@ -1447,7 +1476,7 @@
     </row>
     <row r="32" spans="1:20" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>38</v>

--- a/inputs/E_CigO_fordiscussion.xlsx
+++ b/inputs/E_CigO_fordiscussion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharoncox/Documents/GitHub/addiction-ontology/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2606D6E0-41DB-684D-A090-FB18A3AD54F5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEFFA810-264A-C947-9AF9-23EC5AA2F4FB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{CFD89471-969D-DA4E-B695-10E28209D64F}"/>
+    <workbookView xWindow="6600" yWindow="4080" windowWidth="19000" windowHeight="10940" xr2:uid="{CFD89471-969D-DA4E-B695-10E28209D64F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="130">
   <si>
     <t>ID</t>
   </si>
@@ -838,10 +838,10 @@
   <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E32" sqref="E32"/>
+      <selection pane="bottomRight" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1034,7 +1034,7 @@
     </row>
     <row r="7" spans="1:21" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>57</v>
@@ -1048,7 +1048,7 @@
     </row>
     <row r="8" spans="1:21" s="7" customFormat="1" ht="187" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>65</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="9" spans="1:21" s="7" customFormat="1" ht="221" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>73</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="10" spans="1:21" s="7" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>72</v>
@@ -1115,6 +1115,9 @@
       </c>
     </row>
     <row r="12" spans="1:21" s="7" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>127</v>
+      </c>
       <c r="C12" s="7" t="s">
         <v>82</v>
       </c>
@@ -1129,6 +1132,9 @@
       </c>
     </row>
     <row r="13" spans="1:21" s="7" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>126</v>
+      </c>
       <c r="C13" s="7" t="s">
         <v>84</v>
       </c>
@@ -1140,6 +1146,9 @@
       </c>
     </row>
     <row r="14" spans="1:21" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>127</v>
+      </c>
       <c r="C14" s="7" t="s">
         <v>122</v>
       </c>
@@ -1154,6 +1163,9 @@
       </c>
     </row>
     <row r="15" spans="1:21" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>127</v>
+      </c>
       <c r="C15" s="7" t="s">
         <v>78</v>
       </c>

--- a/inputs/E_CigO_fordiscussion.xlsx
+++ b/inputs/E_CigO_fordiscussion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharoncox/Documents/GitHub/addiction-ontology/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEFFA810-264A-C947-9AF9-23EC5AA2F4FB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5B510E-3C6B-7B4E-A947-4AC97F50F049}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6600" yWindow="4080" windowWidth="19000" windowHeight="10940" xr2:uid="{CFD89471-969D-DA4E-B695-10E28209D64F}"/>
   </bookViews>
@@ -838,10 +838,10 @@
   <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="16" spans="1:21" s="7" customFormat="1" ht="119" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>37</v>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="17" spans="1:20" s="7" customFormat="1" ht="136" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>54</v>

--- a/inputs/E_CigO_fordiscussion.xlsx
+++ b/inputs/E_CigO_fordiscussion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharoncox/Documents/GitHub/addiction-ontology/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5B510E-3C6B-7B4E-A947-4AC97F50F049}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6200890D-CA97-E744-B48E-1806791265BD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6600" yWindow="4080" windowWidth="19000" windowHeight="10940" xr2:uid="{CFD89471-969D-DA4E-B695-10E28209D64F}"/>
+    <workbookView xWindow="12940" yWindow="2020" windowWidth="12660" windowHeight="12980" xr2:uid="{CFD89471-969D-DA4E-B695-10E28209D64F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="130">
   <si>
     <t>ID</t>
   </si>
@@ -838,10 +838,10 @@
   <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="R18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomRight" activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1245,6 +1245,9 @@
       </c>
     </row>
     <row r="20" spans="1:20" s="7" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>126</v>
+      </c>
       <c r="C20" s="7" t="s">
         <v>19</v>
       </c>
@@ -1259,6 +1262,9 @@
       </c>
     </row>
     <row r="21" spans="1:20" s="7" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>126</v>
+      </c>
       <c r="B21" s="7" t="s">
         <v>34</v>
       </c>

--- a/inputs/E_CigO_fordiscussion.xlsx
+++ b/inputs/E_CigO_fordiscussion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharoncox/Documents/GitHub/addiction-ontology/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6200890D-CA97-E744-B48E-1806791265BD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65931055-9740-D34D-ABC8-16AADCE2CBE4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12940" yWindow="2020" windowWidth="12660" windowHeight="12980" xr2:uid="{CFD89471-969D-DA4E-B695-10E28209D64F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="130">
   <si>
     <t>ID</t>
   </si>
@@ -838,10 +838,10 @@
   <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="R18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S21" sqref="S21"/>
+      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1282,6 +1282,9 @@
       </c>
     </row>
     <row r="22" spans="1:20" s="7" customFormat="1" ht="340" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>126</v>
+      </c>
       <c r="B22" s="7" t="s">
         <v>91</v>
       </c>
@@ -1299,6 +1302,9 @@
       </c>
     </row>
     <row r="23" spans="1:20" ht="51" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>126</v>
+      </c>
       <c r="B23" s="6" t="s">
         <v>34</v>
       </c>
@@ -1313,6 +1319,9 @@
       </c>
     </row>
     <row r="24" spans="1:20" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>127</v>
+      </c>
       <c r="C24" s="7" t="s">
         <v>20</v>
       </c>
@@ -1324,6 +1333,9 @@
       </c>
     </row>
     <row r="25" spans="1:20" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>127</v>
+      </c>
       <c r="C25" s="7" t="s">
         <v>98</v>
       </c>
